--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07454735667809474</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.487074781452648</v>
+        <v>-1.542698327330717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2171576445479781</v>
+        <v>0.2249890260374232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1493972871232991</v>
+        <v>0.1185529885794731</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08072370333671222</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.391561813394578</v>
+        <v>-1.441410020384521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2007062541340528</v>
+        <v>0.201882181198823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.125951326388427</v>
+        <v>0.09308270111847421</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09296453006932288</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.400014094132953</v>
+        <v>-1.434026320671808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1704554084087026</v>
+        <v>0.1882242274844038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1562515756885938</v>
+        <v>0.1305135330505025</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1090924599962591</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.470165950531161</v>
+        <v>-1.512807944725325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1818938607804357</v>
+        <v>0.2109035179286036</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1291143750180425</v>
+        <v>0.08819357697366179</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.125134942907276</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.444018041198295</v>
+        <v>-1.506851459396203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2884274855466655</v>
+        <v>0.3222847922336269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1532099012736512</v>
+        <v>0.09897453485586045</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.135106472953084</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.32997568298062</v>
+        <v>-1.427111040038839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3543940662610284</v>
+        <v>0.3768482959755082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06862000261546311</v>
+        <v>0.02528391869116009</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1325352925591404</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.03966746902411</v>
+        <v>-1.14363332774123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4119638690186009</v>
+        <v>0.4239805261918911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01674258953398029</v>
+        <v>-0.02778588931336518</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1111611124348951</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.498310415232008</v>
+        <v>-0.559221973377483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3791519663715856</v>
+        <v>0.3707612876215626</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008297590776234567</v>
+        <v>-0.02363842871147838</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0653766621429544</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08029937365451166</v>
+        <v>0.04363460209247891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3740798660237487</v>
+        <v>0.3275386489431347</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04869762963634909</v>
+        <v>-0.06326253539709271</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.007811222531507712</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7610129334320399</v>
+        <v>0.8104061395971279</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1832326366658977</v>
+        <v>0.1374153954285836</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0214811392778205</v>
+        <v>-0.01420356576286268</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1072049117255332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.485000365224843</v>
+        <v>1.576709867942711</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2050898300440256</v>
+        <v>-0.2518713558712784</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06269584308220921</v>
+        <v>0.09111936646002221</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2265989997490504</v>
       </c>
       <c r="E13" t="n">
-        <v>2.185097814030101</v>
+        <v>2.313499534740456</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5911555902499811</v>
+        <v>-0.6211929637384694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1712855104497567</v>
+        <v>0.21030213614133</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3567578071716648</v>
       </c>
       <c r="E14" t="n">
-        <v>2.799640469666556</v>
+        <v>2.991788659827911</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.136596672893588</v>
+        <v>-1.153931228447444</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3203458544022448</v>
+        <v>0.3797008949806588</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4911181780998201</v>
       </c>
       <c r="E15" t="n">
-        <v>3.496385794432407</v>
+        <v>3.69409158180029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.740836548458414</v>
+        <v>-1.742117991800262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4371328556652862</v>
+        <v>0.5165445277778834</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6275700265545361</v>
       </c>
       <c r="E16" t="n">
-        <v>4.112475208905095</v>
+        <v>4.311467928900917</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.288390396326276</v>
+        <v>-2.246573624807753</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6349014648628742</v>
+        <v>0.7037999342703651</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7674285531876071</v>
       </c>
       <c r="E17" t="n">
-        <v>4.692759839969964</v>
+        <v>4.91466727979121</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.886427988529252</v>
+        <v>-2.796853818100679</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8261262351196323</v>
+        <v>0.9070370922556762</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9126836236467442</v>
       </c>
       <c r="E18" t="n">
-        <v>5.056350633158431</v>
+        <v>5.273983748877026</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.470329754167576</v>
+        <v>-3.342042393584112</v>
       </c>
       <c r="G18" t="n">
-        <v>1.024368142762377</v>
+        <v>1.097648282311626</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.062786298428644</v>
       </c>
       <c r="E19" t="n">
-        <v>5.385811485117429</v>
+        <v>5.592386738966582</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.021996602119088</v>
+        <v>-3.847265306802952</v>
       </c>
       <c r="G19" t="n">
-        <v>1.270723033069715</v>
+        <v>1.336119337951319</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.2133528856677</v>
       </c>
       <c r="E20" t="n">
-        <v>5.743773930300865</v>
+        <v>5.943239948741843</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.573550309785064</v>
+        <v>-4.355430477366424</v>
       </c>
       <c r="G20" t="n">
-        <v>1.452236646311291</v>
+        <v>1.510066275277158</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.356903982192697</v>
       </c>
       <c r="E21" t="n">
-        <v>6.005382326812995</v>
+        <v>6.166816131534671</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.917010061116784</v>
+        <v>-4.667378067013279</v>
       </c>
       <c r="G21" t="n">
-        <v>1.584154559723098</v>
+        <v>1.646417702088247</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.485639532315123</v>
       </c>
       <c r="E22" t="n">
-        <v>6.161944085168807</v>
+        <v>6.313927778924949</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.190858650730234</v>
+        <v>-4.936981303756223</v>
       </c>
       <c r="G22" t="n">
-        <v>1.785334455265738</v>
+        <v>1.843669708472629</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.593236423277923</v>
       </c>
       <c r="E23" t="n">
-        <v>6.280134513909046</v>
+        <v>6.387581799849045</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.412604766532479</v>
+        <v>-5.186774011958051</v>
       </c>
       <c r="G23" t="n">
-        <v>1.904009161023315</v>
+        <v>1.952777808415412</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.675276801379857</v>
       </c>
       <c r="E24" t="n">
-        <v>6.422583927646262</v>
+        <v>6.487639286869563</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.516100376407827</v>
+        <v>-5.302319519683572</v>
       </c>
       <c r="G24" t="n">
-        <v>1.981993618752321</v>
+        <v>2.039656739373436</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.730230190830595</v>
       </c>
       <c r="E25" t="n">
-        <v>6.448162780987722</v>
+        <v>6.497363862139634</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.523753051138985</v>
+        <v>-5.322322173237863</v>
       </c>
       <c r="G25" t="n">
-        <v>2.039320673080548</v>
+        <v>2.099205734727056</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.75773975921795</v>
       </c>
       <c r="E26" t="n">
-        <v>6.499050902731519</v>
+        <v>6.552461656394347</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.505872921539777</v>
+        <v>-5.324065631492347</v>
       </c>
       <c r="G26" t="n">
-        <v>2.051830146160651</v>
+        <v>2.125082839279446</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.758383071853399</v>
       </c>
       <c r="E27" t="n">
-        <v>6.411427258627187</v>
+        <v>6.447413798396676</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.491659635049179</v>
+        <v>-5.319081969642639</v>
       </c>
       <c r="G27" t="n">
-        <v>2.053256750623564</v>
+        <v>2.131033835322476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.733308396722316</v>
       </c>
       <c r="E28" t="n">
-        <v>6.347843028076202</v>
+        <v>6.359941414620176</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.384331893561823</v>
+        <v>-5.232556792677129</v>
       </c>
       <c r="G28" t="n">
-        <v>2.018009434714294</v>
+        <v>2.097732166372033</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.684592794095695</v>
       </c>
       <c r="E29" t="n">
-        <v>6.26677603124691</v>
+        <v>6.264128975509824</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.229859113523872</v>
+        <v>-5.087327360495296</v>
       </c>
       <c r="G29" t="n">
-        <v>1.935521932628856</v>
+        <v>2.018393684740645</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.614971714200277</v>
       </c>
       <c r="E30" t="n">
-        <v>6.151310728090382</v>
+        <v>6.115782848669808</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.036524017725566</v>
+        <v>-4.894388713136876</v>
       </c>
       <c r="G30" t="n">
-        <v>1.900208745286497</v>
+        <v>1.970505762805772</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.528123038517139</v>
       </c>
       <c r="E31" t="n">
-        <v>6.026356279045007</v>
+        <v>5.948864637222813</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.887199578120046</v>
+        <v>-4.765406957862933</v>
       </c>
       <c r="G31" t="n">
-        <v>1.788001638385157</v>
+        <v>1.862533335163093</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.428327976176863</v>
       </c>
       <c r="E32" t="n">
-        <v>5.85372189101553</v>
+        <v>5.760038075067028</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.638673370203485</v>
+        <v>-4.512997384997517</v>
       </c>
       <c r="G32" t="n">
-        <v>1.739861819210786</v>
+        <v>1.795795814713321</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.320444959004232</v>
       </c>
       <c r="E33" t="n">
-        <v>5.605848908143765</v>
+        <v>5.491965739222722</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.476314315815182</v>
+        <v>-4.365825355460241</v>
       </c>
       <c r="G33" t="n">
-        <v>1.650803641674742</v>
+        <v>1.702463922995302</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.209223066886761</v>
       </c>
       <c r="E34" t="n">
-        <v>5.390218771927611</v>
+        <v>5.272022243980604</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.267963582876015</v>
+        <v>-4.157481331648518</v>
       </c>
       <c r="G34" t="n">
-        <v>1.514520525979449</v>
+        <v>1.560269456100967</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.099081811927734</v>
       </c>
       <c r="E35" t="n">
-        <v>5.145207536871149</v>
+        <v>5.012466840466408</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.138639967062756</v>
+        <v>-4.021781300120197</v>
       </c>
       <c r="G35" t="n">
-        <v>1.462172254135517</v>
+        <v>1.4965168874432</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9928371928921077</v>
       </c>
       <c r="E36" t="n">
-        <v>4.891210950404834</v>
+        <v>4.72706665819569</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.96342073520522</v>
+        <v>-3.86199062170168</v>
       </c>
       <c r="G36" t="n">
-        <v>1.425439781378365</v>
+        <v>1.456182223169174</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8932980280767472</v>
       </c>
       <c r="E37" t="n">
-        <v>4.56948023310294</v>
+        <v>4.407710972009053</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.846338837294971</v>
+        <v>-3.729091345920985</v>
       </c>
       <c r="G37" t="n">
-        <v>1.341296954576233</v>
+        <v>1.364239730752788</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8024874157586617</v>
       </c>
       <c r="E38" t="n">
-        <v>4.284081270673575</v>
+        <v>4.121466659521714</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.760155825829117</v>
+        <v>-3.638164066471046</v>
       </c>
       <c r="G38" t="n">
-        <v>1.254014866050879</v>
+        <v>1.260616647456</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7210766594058824</v>
       </c>
       <c r="E39" t="n">
-        <v>4.017731350820405</v>
+        <v>3.856648860408536</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.740375183401162</v>
+        <v>-3.59219343018353</v>
       </c>
       <c r="G39" t="n">
-        <v>1.181896015470158</v>
+        <v>1.173865189919417</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6489588917197554</v>
       </c>
       <c r="E40" t="n">
-        <v>3.694567319928153</v>
+        <v>3.518408810228426</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.650299963136641</v>
+        <v>-3.511720496093391</v>
       </c>
       <c r="G40" t="n">
-        <v>1.09820635973085</v>
+        <v>1.088134129675033</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5850434051048061</v>
       </c>
       <c r="E41" t="n">
-        <v>3.486747827898434</v>
+        <v>3.305252512277161</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.564180383421168</v>
+        <v>-3.424716531396634</v>
       </c>
       <c r="G41" t="n">
-        <v>1.044776698527044</v>
+        <v>1.029313989530127</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.527739746892306</v>
       </c>
       <c r="E42" t="n">
-        <v>3.189446873383007</v>
+        <v>3.008961586402429</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.514169937531211</v>
+        <v>-3.344608329871191</v>
       </c>
       <c r="G42" t="n">
-        <v>1.023162939505123</v>
+        <v>1.011021248593099</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4750557997180433</v>
       </c>
       <c r="E43" t="n">
-        <v>2.882722644411823</v>
+        <v>2.68744190165469</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.425346884416054</v>
+        <v>-3.249913265440641</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9475303359056566</v>
+        <v>0.92125312338932</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4250440566415243</v>
       </c>
       <c r="E44" t="n">
-        <v>2.662458330893736</v>
+        <v>2.460568487683362</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.382701535658168</v>
+        <v>-3.213846216141821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9336198750310636</v>
+        <v>0.9074487887124811</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3770166204877866</v>
       </c>
       <c r="E45" t="n">
-        <v>2.397569780982055</v>
+        <v>2.204002915326584</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.285793069091699</v>
+        <v>-3.123117770832502</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8557098276246202</v>
+        <v>0.8363832711405045</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3301690576921179</v>
       </c>
       <c r="E46" t="n">
-        <v>2.24119221867062</v>
+        <v>2.055908075805388</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.210336427607475</v>
+        <v>-3.033267001377024</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8266379585674239</v>
+        <v>0.7980393879553843</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2841680927114078</v>
       </c>
       <c r="E47" t="n">
-        <v>2.02197513895451</v>
+        <v>1.841484362687841</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.116526663039224</v>
+        <v>-2.954084049518207</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7357957630518915</v>
+        <v>0.7209990874339836</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2389902366433345</v>
       </c>
       <c r="E48" t="n">
-        <v>1.888400680984655</v>
+        <v>1.713870659491845</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.074631821674077</v>
+        <v>-2.893695803313382</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6629626953586989</v>
+        <v>0.6534698899457921</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1947315065191991</v>
       </c>
       <c r="E49" t="n">
-        <v>1.690163652707324</v>
+        <v>1.531428137059582</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.020071977456256</v>
+        <v>-2.856429649964075</v>
       </c>
       <c r="G49" t="n">
-        <v>0.579529206303625</v>
+        <v>0.5713233335186567</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1512293949299882</v>
       </c>
       <c r="E50" t="n">
-        <v>1.596591452242668</v>
+        <v>1.439883312924435</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.936054794313534</v>
+        <v>-2.769725766240279</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5456853178715521</v>
+        <v>0.5559893177845338</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1087003794980857</v>
       </c>
       <c r="E51" t="n">
-        <v>1.482195340032479</v>
+        <v>1.348478160624265</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.869021462335539</v>
+        <v>-2.705145535224164</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4642700563358376</v>
+        <v>0.4669140624695404</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06674503687934415</v>
       </c>
       <c r="E52" t="n">
-        <v>1.420753150898233</v>
+        <v>1.299416141386651</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.764578645649202</v>
+        <v>-2.621923688643922</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3834482476185989</v>
+        <v>0.39032571316961</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02571637971505723</v>
       </c>
       <c r="E53" t="n">
-        <v>1.338779811943294</v>
+        <v>1.250230918172334</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.727484489930738</v>
+        <v>-2.586626359239158</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3861062819278669</v>
+        <v>0.3846644294480345</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0141982106543305</v>
       </c>
       <c r="E54" t="n">
-        <v>1.22896664369819</v>
+        <v>1.170784480581162</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.681492201459197</v>
+        <v>-2.532791100785314</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3256143492079945</v>
+        <v>0.3296861796459646</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05274741101174563</v>
       </c>
       <c r="E55" t="n">
-        <v>1.179028168448089</v>
+        <v>1.141572329768314</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.649390246479917</v>
+        <v>-2.508673007464666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2942131930862976</v>
+        <v>0.2975415302193117</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08968986985324873</v>
       </c>
       <c r="E56" t="n">
-        <v>1.14623578326273</v>
+        <v>1.128289477270095</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.621280222329952</v>
+        <v>-2.481367468687332</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2649473692538954</v>
+        <v>0.2602650082185006</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1249030976947259</v>
       </c>
       <c r="E57" t="n">
-        <v>1.01200566056537</v>
+        <v>1.011163970031458</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.598867467221492</v>
+        <v>-2.443133371224026</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2169899163618724</v>
+        <v>0.2213380408664093</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1579999444497948</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9951267157570447</v>
+        <v>1.015706049311201</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.622903221250779</v>
+        <v>-2.468286499933116</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1962245570013081</v>
+        <v>0.2082802490979102</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.188728381016276</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9370695863787506</v>
+        <v>0.9863700846009729</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.559159191482486</v>
+        <v>-2.403803246304605</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1973791368423921</v>
+        <v>0.2052092984904837</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2167760976482511</v>
       </c>
       <c r="E60" t="n">
-        <v>0.906011205677386</v>
+        <v>0.9813455580659224</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.585527892100335</v>
+        <v>-2.425126683084393</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1574439706116363</v>
+        <v>0.1812534440698502</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2420657145269914</v>
       </c>
       <c r="E61" t="n">
-        <v>0.970249271193845</v>
+        <v>1.076113203057005</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.607582623771544</v>
+        <v>-2.446617848050288</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1661237517624379</v>
+        <v>0.1951266997831616</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2647485007220148</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9560497079184734</v>
+        <v>1.090338992921477</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.596991961140491</v>
+        <v>-2.437409265672746</v>
       </c>
       <c r="G62" t="n">
-        <v>0.125815923998189</v>
+        <v>0.1596628620336457</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2848420070947633</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9815071870452606</v>
+        <v>1.144271228762924</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.598640576729741</v>
+        <v>-2.448135330694037</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09753329229670479</v>
+        <v>0.13139364858705</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3027688199925993</v>
       </c>
       <c r="E64" t="n">
-        <v>1.025625189277155</v>
+        <v>1.222186155534781</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.676359718964362</v>
+        <v>-2.513112010150038</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1313619327118591</v>
+        <v>0.158308838131265</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3187502579191409</v>
       </c>
       <c r="E65" t="n">
-        <v>1.04367457186416</v>
+        <v>1.25295116439063</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.801039703705201</v>
+        <v>-2.648621746427215</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07989438632515096</v>
+        <v>0.1194404231641415</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3325972508960539</v>
       </c>
       <c r="E66" t="n">
-        <v>1.063231678364086</v>
+        <v>1.291828118247228</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.871192779944762</v>
+        <v>-2.724165911528552</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06900364272113764</v>
+        <v>0.1215952729150924</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3441260807143324</v>
       </c>
       <c r="E67" t="n">
-        <v>1.065184644371034</v>
+        <v>1.333108159570214</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.903111758721018</v>
+        <v>-2.769380551137239</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0265366957612006</v>
+        <v>0.08269270239007105</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.352934827596955</v>
       </c>
       <c r="E68" t="n">
-        <v>1.087820020526508</v>
+        <v>1.360622291218995</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.98491401492613</v>
+        <v>-2.859609166451963</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0249674458661124</v>
+        <v>0.04099364556215982</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3585873425313224</v>
       </c>
       <c r="E69" t="n">
-        <v>1.069053371223647</v>
+        <v>1.348050606229864</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.018092174939532</v>
+        <v>-2.898844753666489</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.002095420488060229</v>
+        <v>0.07040524043630467</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3606769852289244</v>
       </c>
       <c r="E70" t="n">
-        <v>1.061350682996995</v>
+        <v>1.355726457946739</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.079589256934685</v>
+        <v>-2.946770490683321</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.006709470407659288</v>
+        <v>0.06817781012482076</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3585339216683006</v>
       </c>
       <c r="E71" t="n">
-        <v>1.043938057596515</v>
+        <v>1.347125966483914</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.132403508175653</v>
+        <v>-3.009383422556585</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02321880328587572</v>
+        <v>0.06341615940144868</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3516506930450533</v>
       </c>
       <c r="E72" t="n">
-        <v>1.025896603978308</v>
+        <v>1.340955398997254</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.203103073341581</v>
+        <v>-3.083734582814203</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0849860801408283</v>
+        <v>0.0157350005759925</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3396098792052112</v>
       </c>
       <c r="E73" t="n">
-        <v>1.044694969156359</v>
+        <v>1.38044044376857</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.26383013048234</v>
+        <v>-3.140070211082376</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1585242161363416</v>
+        <v>-0.04482341349764543</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3220477799454826</v>
       </c>
       <c r="E74" t="n">
-        <v>1.006901844342343</v>
+        <v>1.368529912793034</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.309298802052892</v>
+        <v>-3.184150093271974</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1903596357798833</v>
+        <v>-0.07137326055648839</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2986310883155253</v>
       </c>
       <c r="E75" t="n">
-        <v>1.005413637891077</v>
+        <v>1.355025049168478</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.312498750883451</v>
+        <v>-3.190017225221951</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1868422232370772</v>
+        <v>-0.0600946074020633</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2697272694775574</v>
       </c>
       <c r="E76" t="n">
-        <v>1.010655906107727</v>
+        <v>1.3694777295247</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.364990354086419</v>
+        <v>-3.246773393796742</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1987454351644923</v>
+        <v>-0.07420512225862963</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2358538691647838</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9106953964748111</v>
+        <v>1.266376128406532</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.393430650282843</v>
+        <v>-3.264585517240492</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2249201810071352</v>
+        <v>-0.09162384686587741</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1979829164650656</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9507037531867767</v>
+        <v>1.306271039872622</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.375827729631217</v>
+        <v>-3.248040808963024</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1971138973541913</v>
+        <v>-0.06185910791989543</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1572173565232169</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9552336340529846</v>
+        <v>1.318707932392192</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.334808124437203</v>
+        <v>-3.204919722077275</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1600599964003933</v>
+        <v>-0.02715767101631468</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1143200643096281</v>
       </c>
       <c r="E80" t="n">
-        <v>1.00240672895471</v>
+        <v>1.360706460272386</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.301425336036751</v>
+        <v>-3.166992109754035</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1770969106639967</v>
+        <v>-0.03783677214549643</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06974337053504204</v>
       </c>
       <c r="E81" t="n">
-        <v>1.152797309903185</v>
+        <v>1.499346919383311</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.184298608956762</v>
+        <v>-3.054223570869749</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1990186796276754</v>
+        <v>-0.06093446817394538</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.02365324582472545</v>
       </c>
       <c r="E82" t="n">
-        <v>1.233383079318522</v>
+        <v>1.573568166536782</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.061876855521583</v>
+        <v>-2.939001321102904</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1624868707731738</v>
+        <v>-0.0349250108347012</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.02376135799142131</v>
       </c>
       <c r="E83" t="n">
-        <v>1.410085638261909</v>
+        <v>1.747052174068969</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.91858483636944</v>
+        <v>-2.801323926740565</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1296133661378069</v>
+        <v>0.005413312963385112</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.07172715109859348</v>
       </c>
       <c r="E84" t="n">
-        <v>1.652255252885402</v>
+        <v>1.95006244156253</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.823258504038455</v>
+        <v>-2.714889018035214</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1637994200695356</v>
+        <v>-0.0293661937868194</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.119545254065053</v>
       </c>
       <c r="E85" t="n">
-        <v>1.83735641954761</v>
+        <v>2.1109534168819</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.610410216028948</v>
+        <v>-2.505905187433583</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.115543106045906</v>
+        <v>0.01404978974613761</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1657771271363972</v>
       </c>
       <c r="E86" t="n">
-        <v>2.047183770445184</v>
+        <v>2.26849470784457</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.410616670184557</v>
+        <v>-2.321931764102682</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.124038081231653</v>
+        <v>0.0164242109407178</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.208753734114323</v>
       </c>
       <c r="E87" t="n">
-        <v>2.192277800236779</v>
+        <v>2.382749928378431</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.142378435916175</v>
+        <v>-2.055649545444632</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1162701314925897</v>
+        <v>0.03131481434284489</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2461844586702105</v>
       </c>
       <c r="E88" t="n">
-        <v>2.340819101693355</v>
+        <v>2.485645986228535</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.82710372897766</v>
+        <v>-1.753316745346033</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08578934567210549</v>
+        <v>0.04678484238788263</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2752138931957118</v>
       </c>
       <c r="E89" t="n">
-        <v>2.399217786650628</v>
+        <v>2.522188773655218</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.610602016114432</v>
+        <v>-1.555508491304457</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1194417190116796</v>
+        <v>0.001458587295350705</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2936461710962882</v>
       </c>
       <c r="E90" t="n">
-        <v>2.491679321562926</v>
+        <v>2.589119029038843</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.400049469532205</v>
+        <v>-1.333472358220417</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1356210848037753</v>
+        <v>-0.005077322676681485</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.299645272165383</v>
       </c>
       <c r="E91" t="n">
-        <v>2.499990100704296</v>
+        <v>2.593586088075345</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.056440287634681</v>
+        <v>-0.9757203356704596</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.101865024949154</v>
+        <v>0.00895329257123084</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2923257126468562</v>
       </c>
       <c r="E92" t="n">
-        <v>2.424247711383015</v>
+        <v>2.520810352925767</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8793729961265991</v>
+        <v>-0.7743964988481071</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1087223631178325</v>
+        <v>-0.003325630493061062</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2720589566694844</v>
       </c>
       <c r="E93" t="n">
-        <v>2.355144918548813</v>
+        <v>2.453487308626316</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6190356743048115</v>
+        <v>-0.4755012116836608</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1483489094861538</v>
+        <v>-0.07393797700221398</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.24053805474022</v>
       </c>
       <c r="E94" t="n">
-        <v>2.283621960469275</v>
+        <v>2.399399543012299</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3716073236063966</v>
+        <v>-0.2188026766193522</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1553465294104843</v>
+        <v>-0.1084771750057797</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2005111277678582</v>
       </c>
       <c r="E95" t="n">
-        <v>2.132362242556434</v>
+        <v>2.258857961151951</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1643477387579321</v>
+        <v>-0.004816276627033315</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1773158721869493</v>
+        <v>-0.1493199032035367</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1553404457830561</v>
       </c>
       <c r="E96" t="n">
-        <v>1.979005007436256</v>
+        <v>2.103267196513521</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.009229052723305514</v>
+        <v>0.1592810516900014</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2070427960509729</v>
+        <v>-0.2011930468402823</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1093411898716086</v>
       </c>
       <c r="E97" t="n">
-        <v>1.822792123707543</v>
+        <v>1.938105556615561</v>
       </c>
       <c r="F97" t="n">
-        <v>0.144013517309644</v>
+        <v>0.2913801115428028</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2080772215187376</v>
+        <v>-0.2126308892913386</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.06642355852070361</v>
       </c>
       <c r="E98" t="n">
-        <v>1.635006696146967</v>
+        <v>1.737378222215068</v>
       </c>
       <c r="F98" t="n">
-        <v>0.25089296709959</v>
+        <v>0.3891930904728889</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3039713899997742</v>
+        <v>-0.3349870762537665</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02926430174033844</v>
       </c>
       <c r="E99" t="n">
-        <v>1.504694703877038</v>
+        <v>1.582720026291387</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3377859262331788</v>
+        <v>0.4456095332307307</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2856176569950717</v>
+        <v>-0.3224269797574937</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.003020974139695886</v>
       </c>
       <c r="E100" t="n">
-        <v>1.34677038272937</v>
+        <v>1.411667162576717</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3833610289618239</v>
+        <v>0.4746936007014619</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.363087341672903</v>
+        <v>-0.4061818970092138</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03052800428097088</v>
       </c>
       <c r="E101" t="n">
-        <v>1.264144428650311</v>
+        <v>1.294431869616266</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4273417990414496</v>
+        <v>0.4911157149229033</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3716994216285856</v>
+        <v>-0.4075804451209971</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0578120716760446</v>
       </c>
       <c r="E102" t="n">
-        <v>1.110843306232393</v>
+        <v>1.101282799624367</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4240079726223447</v>
+        <v>0.4549272914094108</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4143145793129724</v>
+        <v>-0.4452564651650782</v>
       </c>
     </row>
   </sheetData>
